--- a/02-output/wine_country_stats/Q2E_New Zealand.xlsx
+++ b/02-output/wine_country_stats/Q2E_New Zealand.xlsx
@@ -25,52 +25,52 @@
     <t>price mean</t>
   </si>
   <si>
+    <t>price std</t>
+  </si>
+  <si>
+    <t>price min</t>
+  </si>
+  <si>
+    <t>price 25%</t>
+  </si>
+  <si>
+    <t>price 50%</t>
+  </si>
+  <si>
+    <t>price 75%</t>
+  </si>
+  <si>
+    <t>price max</t>
+  </si>
+  <si>
     <t>price median</t>
   </si>
   <si>
-    <t>price std</t>
-  </si>
-  <si>
-    <t>price min</t>
-  </si>
-  <si>
-    <t>price 25%</t>
-  </si>
-  <si>
-    <t>price 50%</t>
-  </si>
-  <si>
-    <t>price 75%</t>
-  </si>
-  <si>
-    <t>price max</t>
-  </si>
-  <si>
     <t>points count</t>
   </si>
   <si>
     <t>points mean</t>
   </si>
   <si>
+    <t>points std</t>
+  </si>
+  <si>
+    <t>points min</t>
+  </si>
+  <si>
+    <t>points 25%</t>
+  </si>
+  <si>
+    <t>points 50%</t>
+  </si>
+  <si>
+    <t>points 75%</t>
+  </si>
+  <si>
+    <t>points max</t>
+  </si>
+  <si>
     <t>points median</t>
-  </si>
-  <si>
-    <t>points std</t>
-  </si>
-  <si>
-    <t>points min</t>
-  </si>
-  <si>
-    <t>points 25%</t>
-  </si>
-  <si>
-    <t>points 50%</t>
-  </si>
-  <si>
-    <t>points 75%</t>
-  </si>
-  <si>
-    <t>points max</t>
   </si>
   <si>
     <t>Awatere Valley</t>
@@ -498,16 +498,15 @@
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -581,25 +580,25 @@
         <v>20.44444444444444</v>
       </c>
       <c r="D2">
+        <v>4.405707254261954</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>17.5</v>
+      </c>
+      <c r="G2">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>4.405707254261954</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>17.5</v>
-      </c>
       <c r="H2">
+        <v>24.5</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>24.5</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
       </c>
       <c r="L2">
         <v>27</v>
@@ -608,25 +607,25 @@
         <v>88.74074074074075</v>
       </c>
       <c r="N2">
-        <v>89</v>
+        <v>2.158927664598483</v>
       </c>
       <c r="O2">
-        <v>2.158927664598483</v>
+        <v>82</v>
       </c>
       <c r="P2">
-        <v>82</v>
+        <v>87.5</v>
       </c>
       <c r="Q2">
-        <v>87.5</v>
+        <v>89</v>
       </c>
       <c r="R2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -640,25 +639,25 @@
         <v>24.6</v>
       </c>
       <c r="D3">
+        <v>13.04010906566523</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>19.25</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>13.04010906566523</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>19.25</v>
-      </c>
       <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
         <v>20</v>
-      </c>
-      <c r="I3">
-        <v>23</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -667,25 +666,25 @@
         <v>87.40000000000001</v>
       </c>
       <c r="N3">
+        <v>3.339993346633427</v>
+      </c>
+      <c r="O3">
+        <v>80</v>
+      </c>
+      <c r="P3">
+        <v>86</v>
+      </c>
+      <c r="Q3">
         <v>87.5</v>
       </c>
-      <c r="O3">
-        <v>3.339993346633427</v>
-      </c>
-      <c r="P3">
-        <v>80</v>
-      </c>
-      <c r="Q3">
-        <v>86</v>
-      </c>
       <c r="R3">
+        <v>89</v>
+      </c>
+      <c r="S3">
+        <v>92</v>
+      </c>
+      <c r="T3">
         <v>87.5</v>
-      </c>
-      <c r="S3">
-        <v>89</v>
-      </c>
-      <c r="T3">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -699,25 +698,25 @@
         <v>40.90506329113924</v>
       </c>
       <c r="D4">
+        <v>21.54148359795732</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
         <v>34</v>
       </c>
-      <c r="E4">
-        <v>21.54148359795732</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
       <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>130</v>
+      </c>
+      <c r="J4">
         <v>34</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>130</v>
       </c>
       <c r="L4">
         <v>158</v>
@@ -726,25 +725,25 @@
         <v>89.22784810126582</v>
       </c>
       <c r="N4">
+        <v>2.158965115902586</v>
+      </c>
+      <c r="O4">
+        <v>84</v>
+      </c>
+      <c r="P4">
+        <v>88</v>
+      </c>
+      <c r="Q4">
         <v>90</v>
       </c>
-      <c r="O4">
-        <v>2.158965115902586</v>
-      </c>
-      <c r="P4">
-        <v>84</v>
-      </c>
-      <c r="Q4">
-        <v>88</v>
-      </c>
       <c r="R4">
+        <v>91</v>
+      </c>
+      <c r="S4">
+        <v>93</v>
+      </c>
+      <c r="T4">
         <v>90</v>
-      </c>
-      <c r="S4">
-        <v>91</v>
-      </c>
-      <c r="T4">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -758,25 +757,25 @@
         <v>13.28571428571429</v>
       </c>
       <c r="D5">
+        <v>1.799470821684874</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>1.799470821684874</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
       <c r="H5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>15</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -785,25 +784,25 @@
         <v>86.28571428571429</v>
       </c>
       <c r="N5">
+        <v>1.976047040118707</v>
+      </c>
+      <c r="O5">
+        <v>84</v>
+      </c>
+      <c r="P5">
+        <v>85</v>
+      </c>
+      <c r="Q5">
         <v>86</v>
       </c>
-      <c r="O5">
-        <v>1.976047040118707</v>
-      </c>
-      <c r="P5">
-        <v>84</v>
-      </c>
-      <c r="Q5">
-        <v>85</v>
-      </c>
       <c r="R5">
+        <v>87</v>
+      </c>
+      <c r="S5">
+        <v>90</v>
+      </c>
+      <c r="T5">
         <v>86</v>
-      </c>
-      <c r="S5">
-        <v>87</v>
-      </c>
-      <c r="T5">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -817,25 +816,25 @@
         <v>23.9</v>
       </c>
       <c r="D6">
+        <v>7.32499525976335</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>18.25</v>
+      </c>
+      <c r="G6">
         <v>27</v>
       </c>
-      <c r="E6">
-        <v>7.32499525976335</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>18.25</v>
-      </c>
       <c r="H6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>30</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -844,25 +843,25 @@
         <v>88.2</v>
       </c>
       <c r="N6">
+        <v>1.932183566158592</v>
+      </c>
+      <c r="O6">
+        <v>85</v>
+      </c>
+      <c r="P6">
+        <v>87</v>
+      </c>
+      <c r="Q6">
         <v>88.5</v>
       </c>
-      <c r="O6">
-        <v>1.932183566158592</v>
-      </c>
-      <c r="P6">
-        <v>85</v>
-      </c>
-      <c r="Q6">
-        <v>87</v>
-      </c>
       <c r="R6">
+        <v>89.75</v>
+      </c>
+      <c r="S6">
+        <v>91</v>
+      </c>
+      <c r="T6">
         <v>88.5</v>
-      </c>
-      <c r="S6">
-        <v>89.75</v>
-      </c>
-      <c r="T6">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -875,7 +874,7 @@
       <c r="C7">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>16</v>
       </c>
       <c r="F7">
@@ -899,7 +898,7 @@
       <c r="M7">
         <v>91</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>91</v>
       </c>
       <c r="P7">
@@ -929,25 +928,25 @@
         <v>34.91338582677165</v>
       </c>
       <c r="D8">
+        <v>23.90358398512832</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
         <v>29</v>
       </c>
-      <c r="E8">
-        <v>23.90358398512832</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
       <c r="H8">
+        <v>39.5</v>
+      </c>
+      <c r="I8">
+        <v>120</v>
+      </c>
+      <c r="J8">
         <v>29</v>
-      </c>
-      <c r="I8">
-        <v>39.5</v>
-      </c>
-      <c r="J8">
-        <v>120</v>
       </c>
       <c r="L8">
         <v>127</v>
@@ -956,25 +955,25 @@
         <v>89.37007874015748</v>
       </c>
       <c r="N8">
-        <v>89</v>
+        <v>2.727878266165964</v>
       </c>
       <c r="O8">
-        <v>2.727878266165964</v>
+        <v>82</v>
       </c>
       <c r="P8">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T8">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -988,25 +987,25 @@
         <v>38.24137931034483</v>
       </c>
       <c r="D9">
+        <v>10.9988803729347</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9">
         <v>43</v>
       </c>
-      <c r="E9">
-        <v>10.9988803729347</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>34</v>
-      </c>
       <c r="H9">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>52</v>
+      </c>
+      <c r="J9">
         <v>43</v>
-      </c>
-      <c r="I9">
-        <v>46</v>
-      </c>
-      <c r="J9">
-        <v>52</v>
       </c>
       <c r="L9">
         <v>29</v>
@@ -1015,25 +1014,25 @@
         <v>90.27586206896552</v>
       </c>
       <c r="N9">
+        <v>2.671229675691622</v>
+      </c>
+      <c r="O9">
+        <v>81</v>
+      </c>
+      <c r="P9">
+        <v>90</v>
+      </c>
+      <c r="Q9">
         <v>91</v>
       </c>
-      <c r="O9">
-        <v>2.671229675691622</v>
-      </c>
-      <c r="P9">
-        <v>81</v>
-      </c>
-      <c r="Q9">
-        <v>90</v>
-      </c>
       <c r="R9">
+        <v>92</v>
+      </c>
+      <c r="S9">
+        <v>93</v>
+      </c>
+      <c r="T9">
         <v>91</v>
-      </c>
-      <c r="S9">
-        <v>92</v>
-      </c>
-      <c r="T9">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1047,25 +1046,25 @@
         <v>21.58312020460358</v>
       </c>
       <c r="D10">
+        <v>10.69433880337434</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>10.69433880337434</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
       <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
         <v>18</v>
-      </c>
-      <c r="I10">
-        <v>24</v>
-      </c>
-      <c r="J10">
-        <v>90</v>
       </c>
       <c r="L10">
         <v>782</v>
@@ -1074,25 +1073,25 @@
         <v>87.87851662404093</v>
       </c>
       <c r="N10">
+        <v>2.248191499470014</v>
+      </c>
+      <c r="O10">
+        <v>81</v>
+      </c>
+      <c r="P10">
+        <v>86</v>
+      </c>
+      <c r="Q10">
         <v>88</v>
       </c>
-      <c r="O10">
-        <v>2.248191499470014</v>
-      </c>
-      <c r="P10">
-        <v>81</v>
-      </c>
-      <c r="Q10">
-        <v>86</v>
-      </c>
       <c r="R10">
+        <v>90</v>
+      </c>
+      <c r="S10">
+        <v>94</v>
+      </c>
+      <c r="T10">
         <v>88</v>
-      </c>
-      <c r="S10">
-        <v>90</v>
-      </c>
-      <c r="T10">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1106,25 +1105,25 @@
         <v>41.44565217391305</v>
       </c>
       <c r="D11">
+        <v>24.90966718666099</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>21.75</v>
+      </c>
+      <c r="G11">
         <v>35</v>
       </c>
-      <c r="E11">
-        <v>24.90966718666099</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>21.75</v>
-      </c>
       <c r="H11">
+        <v>55.25</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="J11">
         <v>35</v>
-      </c>
-      <c r="I11">
-        <v>55.25</v>
-      </c>
-      <c r="J11">
-        <v>120</v>
       </c>
       <c r="L11">
         <v>92</v>
@@ -1133,25 +1132,25 @@
         <v>89.17391304347827</v>
       </c>
       <c r="N11">
-        <v>89</v>
+        <v>2.379438920160183</v>
       </c>
       <c r="O11">
-        <v>2.379438920160183</v>
+        <v>84</v>
       </c>
       <c r="P11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T11">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1165,25 +1164,25 @@
         <v>21.94444444444444</v>
       </c>
       <c r="D12">
+        <v>8.7110584708484</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
         <v>18.5</v>
       </c>
-      <c r="E12">
-        <v>8.7110584708484</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>17</v>
-      </c>
       <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>48</v>
+      </c>
+      <c r="J12">
         <v>18.5</v>
-      </c>
-      <c r="I12">
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <v>48</v>
       </c>
       <c r="L12">
         <v>36</v>
@@ -1192,25 +1191,25 @@
         <v>87.52777777777777</v>
       </c>
       <c r="N12">
+        <v>2.535306249307523</v>
+      </c>
+      <c r="O12">
+        <v>82</v>
+      </c>
+      <c r="P12">
+        <v>86</v>
+      </c>
+      <c r="Q12">
         <v>87</v>
       </c>
-      <c r="O12">
-        <v>2.535306249307523</v>
-      </c>
-      <c r="P12">
-        <v>82</v>
-      </c>
-      <c r="Q12">
-        <v>86</v>
-      </c>
       <c r="R12">
+        <v>89</v>
+      </c>
+      <c r="S12">
+        <v>93</v>
+      </c>
+      <c r="T12">
         <v>87</v>
-      </c>
-      <c r="S12">
-        <v>89</v>
-      </c>
-      <c r="T12">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1224,25 +1223,25 @@
         <v>16.375</v>
       </c>
       <c r="D13">
+        <v>3.739270364274675</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>14.75</v>
+      </c>
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="E13">
-        <v>3.739270364274675</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>14.75</v>
-      </c>
       <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
         <v>15</v>
-      </c>
-      <c r="I13">
-        <v>17</v>
-      </c>
-      <c r="J13">
-        <v>25</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -1251,25 +1250,25 @@
         <v>86.625</v>
       </c>
       <c r="N13">
+        <v>1.597989808656935</v>
+      </c>
+      <c r="O13">
+        <v>83</v>
+      </c>
+      <c r="P13">
+        <v>86.75</v>
+      </c>
+      <c r="Q13">
         <v>87</v>
       </c>
-      <c r="O13">
-        <v>1.597989808656935</v>
-      </c>
-      <c r="P13">
-        <v>83</v>
-      </c>
-      <c r="Q13">
-        <v>86.75</v>
-      </c>
       <c r="R13">
+        <v>87.25</v>
+      </c>
+      <c r="S13">
+        <v>88</v>
+      </c>
+      <c r="T13">
         <v>87</v>
-      </c>
-      <c r="S13">
-        <v>87.25</v>
-      </c>
-      <c r="T13">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1283,25 +1282,25 @@
         <v>17.66666666666667</v>
       </c>
       <c r="D14">
+        <v>3.651483716701107</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
         <v>18.5</v>
       </c>
-      <c r="E14">
-        <v>3.651483716701107</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>14</v>
-      </c>
       <c r="H14">
+        <v>20.5</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="J14">
         <v>18.5</v>
-      </c>
-      <c r="I14">
-        <v>20.5</v>
-      </c>
-      <c r="J14">
-        <v>22</v>
       </c>
       <c r="L14">
         <v>12</v>
@@ -1310,25 +1309,25 @@
         <v>86.75</v>
       </c>
       <c r="N14">
+        <v>1.815338686155987</v>
+      </c>
+      <c r="O14">
+        <v>84</v>
+      </c>
+      <c r="P14">
+        <v>85</v>
+      </c>
+      <c r="Q14">
         <v>86.5</v>
       </c>
-      <c r="O14">
-        <v>1.815338686155987</v>
-      </c>
-      <c r="P14">
-        <v>84</v>
-      </c>
-      <c r="Q14">
-        <v>85</v>
-      </c>
       <c r="R14">
+        <v>88.25</v>
+      </c>
+      <c r="S14">
+        <v>89</v>
+      </c>
+      <c r="T14">
         <v>86.5</v>
-      </c>
-      <c r="S14">
-        <v>88.25</v>
-      </c>
-      <c r="T14">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1342,25 +1341,25 @@
         <v>35.6</v>
       </c>
       <c r="D15">
+        <v>7.011102306738617</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>29.25</v>
+      </c>
+      <c r="G15">
         <v>35</v>
       </c>
-      <c r="E15">
-        <v>7.011102306738617</v>
-      </c>
-      <c r="F15">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>29.25</v>
-      </c>
       <c r="H15">
+        <v>42.5</v>
+      </c>
+      <c r="I15">
+        <v>45</v>
+      </c>
+      <c r="J15">
         <v>35</v>
-      </c>
-      <c r="I15">
-        <v>42.5</v>
-      </c>
-      <c r="J15">
-        <v>45</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -1369,25 +1368,25 @@
         <v>89.5</v>
       </c>
       <c r="N15">
+        <v>3.064129385141706</v>
+      </c>
+      <c r="O15">
+        <v>83</v>
+      </c>
+      <c r="P15">
+        <v>88</v>
+      </c>
+      <c r="Q15">
         <v>90</v>
       </c>
-      <c r="O15">
-        <v>3.064129385141706</v>
-      </c>
-      <c r="P15">
-        <v>83</v>
-      </c>
-      <c r="Q15">
-        <v>88</v>
-      </c>
       <c r="R15">
+        <v>92</v>
+      </c>
+      <c r="S15">
+        <v>93</v>
+      </c>
+      <c r="T15">
         <v>90</v>
-      </c>
-      <c r="S15">
-        <v>92</v>
-      </c>
-      <c r="T15">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1401,25 +1400,25 @@
         <v>22.6</v>
       </c>
       <c r="D16">
+        <v>8.689073598491383</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16">
         <v>20</v>
       </c>
-      <c r="E16">
-        <v>8.689073598491383</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>17</v>
-      </c>
       <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>52</v>
+      </c>
+      <c r="J16">
         <v>20</v>
-      </c>
-      <c r="I16">
-        <v>25</v>
-      </c>
-      <c r="J16">
-        <v>52</v>
       </c>
       <c r="L16">
         <v>25</v>
@@ -1428,25 +1427,25 @@
         <v>87.8</v>
       </c>
       <c r="N16">
+        <v>2.843120351538663</v>
+      </c>
+      <c r="O16">
+        <v>82</v>
+      </c>
+      <c r="P16">
+        <v>86</v>
+      </c>
+      <c r="Q16">
         <v>88</v>
       </c>
-      <c r="O16">
-        <v>2.843120351538663</v>
-      </c>
-      <c r="P16">
-        <v>82</v>
-      </c>
-      <c r="Q16">
-        <v>86</v>
-      </c>
       <c r="R16">
+        <v>90</v>
+      </c>
+      <c r="S16">
+        <v>92</v>
+      </c>
+      <c r="T16">
         <v>88</v>
-      </c>
-      <c r="S16">
-        <v>90</v>
-      </c>
-      <c r="T16">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1460,25 +1459,25 @@
         <v>34.66666666666666</v>
       </c>
       <c r="D17">
+        <v>20.52756567109097</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
         <v>37</v>
       </c>
-      <c r="E17">
-        <v>20.52756567109097</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>20</v>
-      </c>
       <c r="H17">
+        <v>40.5</v>
+      </c>
+      <c r="I17">
+        <v>78</v>
+      </c>
+      <c r="J17">
         <v>37</v>
-      </c>
-      <c r="I17">
-        <v>40.5</v>
-      </c>
-      <c r="J17">
-        <v>78</v>
       </c>
       <c r="L17">
         <v>15</v>
@@ -1487,25 +1486,25 @@
         <v>89.06666666666666</v>
       </c>
       <c r="N17">
-        <v>89</v>
+        <v>1.98086080374405</v>
       </c>
       <c r="O17">
-        <v>1.98086080374405</v>
+        <v>86</v>
       </c>
       <c r="P17">
-        <v>86</v>
+        <v>87.5</v>
       </c>
       <c r="Q17">
-        <v>87.5</v>
+        <v>89</v>
       </c>
       <c r="R17">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S17">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T17">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1519,25 +1518,25 @@
         <v>26.57142857142857</v>
       </c>
       <c r="D18">
+        <v>10.90652928077401</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>22.5</v>
+      </c>
+      <c r="G18">
         <v>25</v>
-      </c>
-      <c r="E18">
-        <v>10.90652928077401</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>22.5</v>
       </c>
       <c r="H18">
         <v>25</v>
       </c>
       <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
         <v>25</v>
-      </c>
-      <c r="J18">
-        <v>50</v>
       </c>
       <c r="L18">
         <v>7</v>
@@ -1546,25 +1545,25 @@
         <v>87.28571428571429</v>
       </c>
       <c r="N18">
+        <v>2.497617912751115</v>
+      </c>
+      <c r="O18">
+        <v>84</v>
+      </c>
+      <c r="P18">
+        <v>85.5</v>
+      </c>
+      <c r="Q18">
         <v>87</v>
       </c>
-      <c r="O18">
-        <v>2.497617912751115</v>
-      </c>
-      <c r="P18">
-        <v>84</v>
-      </c>
-      <c r="Q18">
-        <v>85.5</v>
-      </c>
       <c r="R18">
+        <v>89</v>
+      </c>
+      <c r="S18">
+        <v>91</v>
+      </c>
+      <c r="T18">
         <v>87</v>
-      </c>
-      <c r="S18">
-        <v>89</v>
-      </c>
-      <c r="T18">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1578,25 +1577,25 @@
         <v>21.09090909090909</v>
       </c>
       <c r="D19">
+        <v>5.318919917700311</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>17.5</v>
+      </c>
+      <c r="G19">
         <v>20</v>
       </c>
-      <c r="E19">
-        <v>5.318919917700311</v>
-      </c>
-      <c r="F19">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>17.5</v>
-      </c>
       <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19">
         <v>20</v>
-      </c>
-      <c r="I19">
-        <v>23</v>
-      </c>
-      <c r="J19">
-        <v>30</v>
       </c>
       <c r="L19">
         <v>11</v>
@@ -1605,25 +1604,25 @@
         <v>87.63636363636364</v>
       </c>
       <c r="N19">
+        <v>2.157439559882375</v>
+      </c>
+      <c r="O19">
+        <v>85</v>
+      </c>
+      <c r="P19">
+        <v>86</v>
+      </c>
+      <c r="Q19">
         <v>87</v>
       </c>
-      <c r="O19">
-        <v>2.157439559882375</v>
-      </c>
-      <c r="P19">
-        <v>85</v>
-      </c>
-      <c r="Q19">
-        <v>86</v>
-      </c>
       <c r="R19">
+        <v>89</v>
+      </c>
+      <c r="S19">
+        <v>92</v>
+      </c>
+      <c r="T19">
         <v>87</v>
-      </c>
-      <c r="S19">
-        <v>89</v>
-      </c>
-      <c r="T19">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1636,7 +1635,7 @@
       <c r="C20">
         <v>55</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>55</v>
       </c>
       <c r="F20">
@@ -1660,7 +1659,7 @@
       <c r="M20">
         <v>89</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>89</v>
       </c>
       <c r="P20">

--- a/02-output/wine_country_stats/Q2E_New Zealand.xlsx
+++ b/02-output/wine_country_stats/Q2E_New Zealand.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Statistic</t>
   </si>
   <si>
-    <t>New Zealand price price</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
-    <t>New Zealand points points</t>
+    <t>New Zealand_priceprice</t>
+  </si>
+  <si>
+    <t>New Zealand_pointspoints</t>
   </si>
   <si>
     <t>Count</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -419,12 +416,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,95 +430,92 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>1368</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>1368</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>26.96637426900585</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>88.31359649122807</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>17.14464590225359</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>2.430371577020085</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>130</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>95</v>
       </c>
     </row>
